--- a/Tables/aq_hmf_metrics_outlet_mean_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,61 +547,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2535544134210388</v>
+        <v>0.3106064139159565</v>
       </c>
       <c r="C2" t="n">
-        <v>41.49706945630859</v>
+        <v>47.46710729746444</v>
       </c>
       <c r="D2" t="n">
-        <v>22.56299773007623</v>
+        <v>27.79829967486217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1562402638884014</v>
+        <v>0.1974998140397347</v>
       </c>
       <c r="F2" t="n">
-        <v>56.58733333333333</v>
+        <v>47.517</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620940251375034</v>
+        <v>3.222634508348794</v>
       </c>
       <c r="H2" t="n">
-        <v>198.2712221353526</v>
+        <v>203.248840445269</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08255778891577728</v>
+        <v>0.1052618158122221</v>
       </c>
       <c r="J2" t="n">
-        <v>0.125099537062961</v>
+        <v>0.1584461907013429</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1384898415243828</v>
+        <v>0.173297644897032</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07902944510519649</v>
+        <v>0.09662240000551804</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07879637360099455</v>
+        <v>0.09924745792826084</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05667576976869989</v>
+        <v>0.07165080173423609</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02370169898070017</v>
+        <v>0.02935261536061826</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01170963547989306</v>
+        <v>0.026516218777344</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008257807348657602</v>
+        <v>0.0140951877362784</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01935407382575893</v>
+        <v>0.02563731563825664</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01678085779036464</v>
+        <v>0.0206482238332848</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02919838813368797</v>
+        <v>0.0325843086500064</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1306,61 +1306,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3586537138373591</v>
+        <v>0.3256155432072392</v>
       </c>
       <c r="C13" t="n">
-        <v>22.60694833163073</v>
+        <v>22.26049971026151</v>
       </c>
       <c r="D13" t="n">
-        <v>8.859673158172887</v>
+        <v>8.47151864304969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2283285814934422</v>
+        <v>0.1928490813871153</v>
       </c>
       <c r="F13" t="n">
-        <v>83.33333333333333</v>
+        <v>84.107125</v>
       </c>
       <c r="G13" t="n">
-        <v>4.42226079862196</v>
+        <v>4.037448804094676</v>
       </c>
       <c r="H13" t="n">
-        <v>152.5994682403031</v>
+        <v>151.3486396417658</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1255977654724005</v>
+        <v>0.1066096287636511</v>
       </c>
       <c r="J13" t="n">
-        <v>0.10502817008801</v>
+        <v>0.09711356316908373</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1260645601908378</v>
+        <v>0.1167867476949579</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1948900946647769</v>
+        <v>0.1620289148788205</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1954610819661457</v>
+        <v>0.1741480175579483</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08554935769960548</v>
+        <v>0.07316610438423971</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01980745863225109</v>
+        <v>0.01502876564957063</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01699884767153463</v>
+        <v>0.01274913575365098</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02842839232212673</v>
+        <v>0.04364675483394997</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01623795588061081</v>
+        <v>0.04268548001073514</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1476217386557025</v>
+        <v>0.1509651221842667</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0677947323241409</v>
+        <v>0.07404687587678654</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1444,61 +1444,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4658921950948696</v>
+        <v>0.4737679267187415</v>
       </c>
       <c r="C15" t="n">
-        <v>19.70782591381354</v>
+        <v>20.77792259511988</v>
       </c>
       <c r="D15" t="n">
-        <v>4.576167529651693</v>
+        <v>5.28507281326015</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1012813667936998</v>
+        <v>0.1097415049792067</v>
       </c>
       <c r="F15" t="n">
-        <v>92.91681250000001</v>
+        <v>89.80405882352942</v>
       </c>
       <c r="G15" t="n">
-        <v>5.131039330952656</v>
+        <v>4.660372795179657</v>
       </c>
       <c r="H15" t="n">
-        <v>176.4058158296843</v>
+        <v>177.8228867350064</v>
       </c>
       <c r="I15" t="n">
-        <v>0.121893523996436</v>
+        <v>0.1206161617497019</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1025246014961883</v>
+        <v>0.1082168091398914</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1603079915575359</v>
+        <v>0.1637338661690809</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1493150815516634</v>
+        <v>0.1527734189655372</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09103820196302935</v>
+        <v>0.09278929466199561</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1076360874717174</v>
+        <v>0.1137197844750741</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06905813176902754</v>
+        <v>0.07256337989550583</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05993786851484061</v>
+        <v>0.05647662198388541</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3516912630542077</v>
+        <v>0.3511339210106302</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09204302638768609</v>
+        <v>0.099001566961888</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0726232657503325</v>
+        <v>0.09496094491356358</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09665487221811792</v>
+        <v>0.1139856188529013</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.240391560347805</v>
+        <v>0.1955514010253804</v>
       </c>
       <c r="C22" t="n">
-        <v>49.45454545454545</v>
+        <v>41.00125313283208</v>
       </c>
       <c r="D22" t="n">
-        <v>14.56017316017316</v>
+        <v>18.16320185384095</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.09178577304717235</v>
       </c>
       <c r="F22" t="n">
-        <v>36.667</v>
+        <v>46.66657142857143</v>
       </c>
       <c r="G22" t="n">
-        <v>3.636363636363636</v>
+        <v>2.693609022556391</v>
       </c>
       <c r="H22" t="n">
-        <v>208.6363636363636</v>
+        <v>221.4639097744361</v>
       </c>
       <c r="I22" t="n">
-        <v>0.442585516314816</v>
+        <v>0.04042076002677159</v>
       </c>
       <c r="J22" t="n">
-        <v>0.190894056995376</v>
+        <v>0.05451817298176109</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.09875656002496827</v>
       </c>
       <c r="L22" t="n">
-        <v>0.619717585862592</v>
+        <v>0.07922985723081465</v>
       </c>
       <c r="M22" t="n">
-        <v>0.489280158168768</v>
+        <v>0.05593487958604949</v>
       </c>
       <c r="N22" t="n">
-        <v>0.19511439981264</v>
+        <v>0.06295976397784908</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.008958436359321175</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0550479497904</v>
+        <v>0.002518662147156004</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_mean_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_30_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,65 +543,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3106064139159565</v>
+        <v>0.2708989905878229</v>
       </c>
       <c r="C2" t="n">
-        <v>47.46710729746444</v>
+        <v>46.89860544217687</v>
       </c>
       <c r="D2" t="n">
-        <v>27.79829967486217</v>
+        <v>18.43908709176311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1974998140397347</v>
+        <v>0.1015768703353788</v>
       </c>
       <c r="F2" t="n">
-        <v>47.517</v>
+        <v>53.80957142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>3.222634508348794</v>
+        <v>3.313673469387755</v>
       </c>
       <c r="H2" t="n">
-        <v>203.248840445269</v>
+        <v>208.4523809523809</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1052618158122221</v>
+        <v>0.2031979155003102</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1584461907013429</v>
+        <v>0.1592375323995338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.173297644897032</v>
+        <v>0.1369239410133828</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09662240000551804</v>
+        <v>0.08063318773808301</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09924745792826084</v>
+        <v>0.09274738633359456</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07165080173423609</v>
+        <v>0.03452484499558591</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02935261536061826</v>
+        <v>0.01053058065114919</v>
       </c>
       <c r="P2" t="n">
-        <v>0.026516218777344</v>
+        <v>0.005606182817230165</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0140951877362784</v>
+        <v>0.008542041989007898</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02563731563825664</v>
+        <v>0.01568719870609096</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0206482238332848</v>
+        <v>0.01772176315372902</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0325843086500064</v>
+        <v>0.01487047286706163</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01665796539453802</v>
+        <v>0.1464804824437147</v>
       </c>
       <c r="C3" t="n">
-        <v>38.55256410256411</v>
+        <v>41.8951940869588</v>
       </c>
       <c r="D3" t="n">
-        <v>11.81615614323948</v>
+        <v>18.56151492881535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005961252498626564</v>
+        <v>0.05822155957084187</v>
       </c>
       <c r="F3" t="n">
-        <v>53.76425</v>
+        <v>54.31376470588236</v>
       </c>
       <c r="G3" t="n">
-        <v>4.587321937321937</v>
+        <v>3.191730393789217</v>
       </c>
       <c r="H3" t="n">
-        <v>200.1669515669516</v>
+        <v>208.0645284290873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00209124103034298</v>
+        <v>0.09486100135228367</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001814808575812192</v>
+        <v>0.08046799723587418</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003000969565018019</v>
+        <v>0.06243705026495631</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004345199722640481</v>
+        <v>0.04442663010938601</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002109269233899339</v>
+        <v>0.05231549036614636</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003113588495630861</v>
+        <v>0.0232142027052583</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005218922036367857</v>
+        <v>0.005553024504271776</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008270852215534464</v>
+        <v>0.002518801611451124</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007106744686286152</v>
+        <v>0.003573438728593465</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009573545257041753</v>
+        <v>0.007803525799952388</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004265840384654273</v>
+        <v>0.007419802408725509</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003612144524598319</v>
+        <v>0.007758365417388056</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3767079429276419</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C4" t="n">
-        <v>21.53175298034743</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>5.174047649732525</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08522441862350393</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F4" t="n">
-        <v>86.28091666666667</v>
+        <v>43.333</v>
       </c>
       <c r="G4" t="n">
-        <v>4.603885400858789</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H4" t="n">
-        <v>129.1652056488545</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1918404071292701</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1540897982822465</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1137712494764664</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03887337329570822</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01468142837749036</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007188212253954313</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O4" t="n">
-        <v>3.496564218168e-05</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00145612021260384</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R4" t="n">
-        <v>0.009195390760806657</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0407330027745655</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1291909426545095</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6229270738899297</v>
+        <v>0.3861086532269569</v>
       </c>
       <c r="C5" t="n">
-        <v>23.67708333333333</v>
+        <v>26.14563513115237</v>
       </c>
       <c r="D5" t="n">
-        <v>9.060707136983687</v>
+        <v>8.847202237491363</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2888887331947281</v>
+        <v>0.08525774207293878</v>
       </c>
       <c r="F5" t="n">
-        <v>78.27575</v>
+        <v>77.33340000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>3.18287037037037</v>
+        <v>3.834512231063955</v>
       </c>
       <c r="H5" t="n">
-        <v>210.9050925925926</v>
+        <v>136.809395814913</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.1954998217081007</v>
       </c>
       <c r="J5" t="n">
-        <v>0.046133240143788</v>
+        <v>0.1460836932978429</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1757665745710309</v>
+        <v>0.103064350517264</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4266703876551846</v>
+        <v>0.03963858594118544</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2063534869213184</v>
+        <v>0.01506037897355072</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2255901147068966</v>
+        <v>6.549482737284498e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2473220283048272</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.012008608306128</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08350824953527568</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2185413800743658</v>
+        <v>0.004072528878012</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006053745367227617</v>
+        <v>0.008119272014802606</v>
       </c>
       <c r="T5" t="n">
-        <v>0.036780185711808</v>
+        <v>0.1504715452840608</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.013551006792669</v>
+        <v>0.4939444974761355</v>
       </c>
       <c r="C6" t="n">
-        <v>52.31666666666666</v>
+        <v>22.13959096459096</v>
       </c>
       <c r="D6" t="n">
-        <v>24.34756944444445</v>
+        <v>8.014536002762126</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5104600674066068</v>
+        <v>0.200131370913055</v>
       </c>
       <c r="F6" t="n">
-        <v>38.3335</v>
+        <v>84.74542857142856</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4875</v>
+        <v>3.678326501540787</v>
       </c>
       <c r="H6" t="n">
-        <v>166</v>
+        <v>208.0461945461946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4369318879900472</v>
+        <v>0.007376245220899374</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6504234063943313</v>
+        <v>0.03429470354831201</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2296454835758694</v>
+        <v>0.1604023713196211</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2862442418776931</v>
+        <v>0.313747042404613</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1956440834184019</v>
+        <v>0.1403179024119603</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02017690852984165</v>
+        <v>0.1558467999660007</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003474137275660978</v>
+        <v>0.1478421107580508</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.03056062174520741</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.08783832903269502</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1329789911195626</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.01798658888743471</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1118268517797652</v>
+        <v>0.02718497590473993</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5851638500402799</v>
+        <v>0.06794553811216798</v>
       </c>
       <c r="C7" t="n">
-        <v>22.91213051605101</v>
+        <v>22.59174671592775</v>
       </c>
       <c r="D7" t="n">
-        <v>6.275552459478579</v>
+        <v>4.136076021605424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1719004969183763</v>
+        <v>0.01323480653323514</v>
       </c>
       <c r="F7" t="n">
-        <v>81.33329999999999</v>
+        <v>84.44433333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>3.946676872290992</v>
+        <v>5.448617952928298</v>
       </c>
       <c r="H7" t="n">
-        <v>164.5746172186704</v>
+        <v>226.9997030651341</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1889966270557309</v>
+        <v>0.0006033316461416517</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1833240071765022</v>
+        <v>0.005817340150755614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2036756724777247</v>
+        <v>0.01264769206654882</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1302792859046319</v>
+        <v>0.009299064855024375</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2247114408768975</v>
+        <v>0.03803289638931504</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1437184610187587</v>
+        <v>0.01937087586266279</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1629473933594911</v>
+        <v>0.02143818594164404</v>
       </c>
       <c r="P7" t="n">
-        <v>0.140280548828885</v>
+        <v>0.01236310749683254</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1518773897085395</v>
+        <v>0.009762221971454597</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1382294406930073</v>
+        <v>0.01685183292268949</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1065995054336128</v>
+        <v>0.02481381481406858</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1110609608724311</v>
+        <v>0.003150504116774684</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,50 +957,50 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7126163559476358</v>
+        <v>0.6786143873325542</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0720764716045</v>
+        <v>43.51269841269842</v>
       </c>
       <c r="D8" t="n">
-        <v>7.3984876331115</v>
+        <v>18.27545194003527</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2629388318090267</v>
+        <v>0.3409854870829256</v>
       </c>
       <c r="F8" t="n">
-        <v>77.41374999999999</v>
+        <v>48.889</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432301111148365</v>
+        <v>2.817063492063492</v>
       </c>
       <c r="H8" t="n">
-        <v>193.4871454346569</v>
+        <v>155.7460317460317</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1176696888081667</v>
+        <v>0.292598338373437</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1768152074323436</v>
+        <v>0.4349656121027615</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1382631553493564</v>
+        <v>0.1538828155239456</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1413263622899007</v>
+        <v>0.1917904890715623</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3238749987241459</v>
+        <v>0.1313085250918835</v>
       </c>
       <c r="N8" t="n">
-        <v>0.339777870627092</v>
+        <v>0.01469984140699225</v>
       </c>
       <c r="O8" t="n">
-        <v>0.123864683071584</v>
+        <v>0.002322615718563959</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01139166350588448</v>
+        <v>0.00049502378552256</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03524663648019805</v>
+        <v>0.07555791880460302</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6864048737351152</v>
+        <v>0.6263956208500002</v>
       </c>
       <c r="C9" t="n">
-        <v>27.88482926065163</v>
+        <v>20.78644627594628</v>
       </c>
       <c r="D9" t="n">
-        <v>6.762481771765724</v>
+        <v>6.02538522475467</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1764126116516787</v>
+        <v>0.1901265349066596</v>
       </c>
       <c r="F9" t="n">
-        <v>66.6665</v>
+        <v>87.66659999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>3.823269110275689</v>
+        <v>3.839072853072853</v>
       </c>
       <c r="H9" t="n">
-        <v>165.8944235588972</v>
+        <v>159.8114877899878</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1829413903675745</v>
+        <v>0.2005339041140521</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2351985158985656</v>
+        <v>0.2304067087638898</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1567278588585919</v>
+        <v>0.2459494255807807</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08723897142134833</v>
+        <v>0.1824523568979058</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2881083540477933</v>
+        <v>0.2716289278023563</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5227830831216391</v>
+        <v>0.118070981500749</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4108101067047852</v>
+        <v>0.09939278398614568</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1235795635748533</v>
+        <v>0.05109103180101263</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04044923350598592</v>
+        <v>0.087767757949409</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1173295569755257</v>
+        <v>0.08496897892145318</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0917670439283004</v>
+        <v>0.05501657245901949</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1903074128391</v>
+        <v>0.1213779459286289</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5892238779585744</v>
+        <v>0.4813894211791871</v>
       </c>
       <c r="C10" t="n">
-        <v>26.60439682539683</v>
+        <v>23.17234098865543</v>
       </c>
       <c r="D10" t="n">
-        <v>10.43398616780046</v>
+        <v>6.429733878316917</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1999512959040896</v>
+        <v>0.1529830964766534</v>
       </c>
       <c r="F10" t="n">
-        <v>69.7932</v>
+        <v>80.58823529411765</v>
       </c>
       <c r="G10" t="n">
-        <v>3.201714285714286</v>
+        <v>4.390924808852525</v>
       </c>
       <c r="H10" t="n">
-        <v>164.421126984127</v>
+        <v>161.1453700501499</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1405001346229749</v>
+        <v>0.1707697992689837</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1932855067462401</v>
+        <v>0.1399412295690743</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2529078025819711</v>
+        <v>0.1584504139622273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2460954404349191</v>
+        <v>0.1052531414436623</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06921598722615764</v>
+        <v>0.1647497814821076</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01877298192889057</v>
+        <v>0.1260145354912849</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4090893689587259</v>
+        <v>0.1514192533534312</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03726982703112885</v>
+        <v>0.1541680073642701</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0724668453573247</v>
+        <v>0.1560963790495434</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1988442314170556</v>
+        <v>0.1502351959965841</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06978501992195399</v>
+        <v>0.1009695227703849</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2078782193884533</v>
+        <v>0.09991225282489834</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1292368581010736</v>
+        <v>1.799811817371274</v>
       </c>
       <c r="C11" t="n">
-        <v>22.02998671406055</v>
+        <v>27.43096509389416</v>
       </c>
       <c r="D11" t="n">
-        <v>4.195568828515818</v>
+        <v>9.945848575891073</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02514960964261424</v>
+        <v>0.6064484572868346</v>
       </c>
       <c r="F11" t="n">
-        <v>85.33329999999999</v>
+        <v>66.66659999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>5.110557616795997</v>
+        <v>3.105673604300606</v>
       </c>
       <c r="H11" t="n">
-        <v>225.4354316495599</v>
+        <v>218.400831789619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000551608592518591</v>
+        <v>0.1687778703588076</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01264714122297719</v>
+        <v>0.3506267662994461</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05560352246151042</v>
+        <v>0.4004823278374133</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01459861733545111</v>
+        <v>0.3590677921244786</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04739029985559901</v>
+        <v>0.8833956983852224</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05157395378435144</v>
+        <v>0.9637640216022234</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04713371374499304</v>
+        <v>0.4005642220995072</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01595448882871097</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01504143798129854</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01691459916784988</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01916775728140595</v>
+        <v>0.005365013962831484</v>
       </c>
       <c r="T11" t="n">
-        <v>0.009705888052528512</v>
+        <v>0.03440296242705207</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2477118055108723</v>
+        <v>0.2926005013605956</v>
       </c>
       <c r="C12" t="n">
-        <v>25.33545098198494</v>
+        <v>26.89115804273188</v>
       </c>
       <c r="D12" t="n">
-        <v>8.570297255135152</v>
+        <v>7.090407501709597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.105694257226433</v>
+        <v>0.06035537109664765</v>
       </c>
       <c r="F12" t="n">
-        <v>77.7778</v>
+        <v>71.66659999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>3.944677144306481</v>
+        <v>3.874753775709548</v>
       </c>
       <c r="H12" t="n">
-        <v>234.0083481217407</v>
+        <v>199.4312839132382</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009993492700441063</v>
+        <v>0.07471050833545748</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003997841520022054</v>
+        <v>0.09036389790145259</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04597775835001109</v>
+        <v>0.07224385512756308</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05254477930244483</v>
+        <v>0.05033191152645063</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06021290034951324</v>
+        <v>0.0934756944989401</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1014817575758623</v>
+        <v>0.1503929409820594</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1348708466343825</v>
+        <v>0.1195555518918477</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1097153569808428</v>
+        <v>0.05440499963965399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0570960446015711</v>
+        <v>0.04585571993157537</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03379527615195738</v>
+        <v>0.07058652378840455</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03266854714570853</v>
+        <v>0.06587603104653908</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009895894206481874</v>
+        <v>0.09795486017916706</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3256155432072392</v>
+        <v>0.4828414070994332</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26049971026151</v>
+        <v>30.43737614237614</v>
       </c>
       <c r="D13" t="n">
-        <v>8.47151864304969</v>
+        <v>15.00542042161983</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1928490813871153</v>
+        <v>0.1750175449789334</v>
       </c>
       <c r="F13" t="n">
-        <v>84.107125</v>
+        <v>63.81233333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>4.037448804094676</v>
+        <v>2.778575036075036</v>
       </c>
       <c r="H13" t="n">
-        <v>151.3486396417658</v>
+        <v>185.6520755170755</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1066096287636511</v>
+        <v>0.1122765825513288</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09711356316908373</v>
+        <v>0.1649198447270313</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1167867476949579</v>
+        <v>0.2223129121997582</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1620289148788205</v>
+        <v>0.2048379003803588</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1741480175579483</v>
+        <v>0.05754277724324639</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07316610438423971</v>
+        <v>0.01442174731990272</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01502876564957063</v>
+        <v>0.3428525146399728</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01274913575365098</v>
+        <v>0.0375598374945096</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04364675483394997</v>
+        <v>0.05441402459082961</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04268548001073514</v>
+        <v>0.1578306273008976</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1509651221842667</v>
+        <v>0.052275164171328</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07404687587678654</v>
+        <v>0.1650818597487288</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4800147693132945</v>
+        <v>0.1201528110890067</v>
       </c>
       <c r="C14" t="n">
-        <v>19.91680590057027</v>
+        <v>23.47020002314196</v>
       </c>
       <c r="D14" t="n">
-        <v>5.006574285785574</v>
+        <v>7.028179351744537</v>
       </c>
       <c r="E14" t="n">
-        <v>0.132458593690261</v>
+        <v>0.03627586411592131</v>
       </c>
       <c r="F14" t="n">
-        <v>91.11108333333334</v>
+        <v>81.8749375</v>
       </c>
       <c r="G14" t="n">
-        <v>5.071125584185929</v>
+        <v>4.337979683095529</v>
       </c>
       <c r="H14" t="n">
-        <v>152.1001158313802</v>
+        <v>236.6806047225827</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1126109208328925</v>
+        <v>0.002296053808531875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1813484515831882</v>
+        <v>0.01225601709982507</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1749482800312921</v>
+        <v>0.0498360452436695</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1365457007607355</v>
+        <v>0.01408783473949126</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2392999148649201</v>
+        <v>0.04688394971009058</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07880500830917354</v>
+        <v>0.05528228367973046</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05147414004639186</v>
+        <v>0.0395281981403476</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04011753902630444</v>
+        <v>0.01917559673151701</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05999251537672525</v>
+        <v>0.01853761913828595</v>
       </c>
       <c r="R14" t="n">
-        <v>0.133871465887541</v>
+        <v>0.01292883793144797</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07756220631389257</v>
+        <v>0.009469241285264466</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1062205713848878</v>
+        <v>0.00545787361026322</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4737679267187415</v>
+        <v>0.4416313409087406</v>
       </c>
       <c r="C15" t="n">
-        <v>20.77792259511988</v>
+        <v>26.71584310859783</v>
       </c>
       <c r="D15" t="n">
-        <v>5.28507281326015</v>
+        <v>11.46490861450958</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1097415049792067</v>
+        <v>0.2028644678096335</v>
       </c>
       <c r="F15" t="n">
-        <v>89.80405882352942</v>
+        <v>74.38584210526315</v>
       </c>
       <c r="G15" t="n">
-        <v>4.660372795179657</v>
+        <v>3.15311201880183</v>
       </c>
       <c r="H15" t="n">
-        <v>177.8228867350064</v>
+        <v>234.6949466515548</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1206161617497019</v>
+        <v>0.0007351766365750219</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1082168091398914</v>
+        <v>0.008510597603821267</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1637338661690809</v>
+        <v>0.1029807677783798</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1527734189655372</v>
+        <v>0.1349820029077264</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09278929466199561</v>
+        <v>0.106014432209045</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1137197844750741</v>
+        <v>0.1648971006576455</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07256337989550583</v>
+        <v>0.1952235797468161</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05647662198388541</v>
+        <v>0.1435605472842362</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3511339210106302</v>
+        <v>0.06633974490516588</v>
       </c>
       <c r="R15" t="n">
-        <v>0.099001566961888</v>
+        <v>0.05388986478852942</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09496094491356358</v>
+        <v>0.0415885071625194</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1139856188529013</v>
+        <v>0.01188942573912371</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5198040799309184</v>
+        <v>1.82211983338163</v>
       </c>
       <c r="C16" t="n">
-        <v>27.66416263475087</v>
+        <v>26.27258832347209</v>
       </c>
       <c r="D16" t="n">
-        <v>17.95399725546784</v>
+        <v>13.20786265728498</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3835554598922231</v>
+        <v>0.9998873541790171</v>
       </c>
       <c r="F16" t="n">
-        <v>66.66666666666667</v>
+        <v>73.254</v>
       </c>
       <c r="G16" t="n">
-        <v>1.873949579831933</v>
+        <v>2.41946038901377</v>
       </c>
       <c r="H16" t="n">
-        <v>249.942237501061</v>
+        <v>162.9056199070955</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.603849990670716</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.1259462065443327</v>
       </c>
       <c r="K16" t="n">
-        <v>2.44657554624e-05</v>
+        <v>0.2768056116699391</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04348788033441601</v>
+        <v>0.5704700474558969</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2275953526388352</v>
+        <v>0.9458378744690775</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3257672288616519</v>
+        <v>0.8406732716048122</v>
       </c>
       <c r="O16" t="n">
-        <v>0.102829065359545</v>
+        <v>0.7353588867804565</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0044527674941568</v>
+        <v>2.583012909201984</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.1855325905670866</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.2177115832015993</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.3444745748098637</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.4040575770169748</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9310269942115126</v>
+        <v>0.5424067667041428</v>
       </c>
       <c r="C17" t="n">
-        <v>34.9</v>
+        <v>20.36872353297036</v>
       </c>
       <c r="D17" t="n">
-        <v>19.57222222222222</v>
+        <v>4.950067030693391</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6381473506205826</v>
+        <v>0.1510171369821218</v>
       </c>
       <c r="F17" t="n">
-        <v>54.762</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>5.572507734361938</v>
       </c>
       <c r="H17" t="n">
-        <v>232.15</v>
+        <v>153.896320374076</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03482700290072641</v>
+        <v>0.1255994007092908</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1313872232719536</v>
+        <v>0.181761324070623</v>
       </c>
       <c r="K17" t="n">
-        <v>0.244005134478336</v>
+        <v>0.1809185199011122</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1090003774195392</v>
+        <v>0.1336412466906337</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3494311929503374</v>
+        <v>0.280260996758576</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5111838247680662</v>
+        <v>0.1934109772879794</v>
       </c>
       <c r="O17" t="n">
-        <v>0.116181756252072</v>
+        <v>0.1101826240423266</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.06631917551798844</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.04704276224865131</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1058334666284924</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.05990571782859725</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0008196028079904</v>
+        <v>0.1148501139992419</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8373667371023176</v>
+        <v>0.761696660956767</v>
       </c>
       <c r="C18" t="n">
-        <v>19.51159986246193</v>
+        <v>20.55945370721233</v>
       </c>
       <c r="D18" t="n">
-        <v>4.23441922408158</v>
+        <v>4.400693375267646</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2089360876246486</v>
+        <v>0.1606815710505989</v>
       </c>
       <c r="F18" t="n">
-        <v>93.3335</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>5.414832007073386</v>
+        <v>5.70356827080965</v>
       </c>
       <c r="H18" t="n">
-        <v>107.1277139208174</v>
+        <v>179.2108222811671</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3489053210801818</v>
+        <v>0.2040688776756603</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2506735541106233</v>
+        <v>0.1658139393213965</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1704412011285572</v>
+        <v>0.2637691061373119</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1831662762908497</v>
+        <v>0.2553834600178405</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01951296909098044</v>
+        <v>0.1358861868703327</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04006462070931908</v>
+        <v>0.1786871562125137</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03463433507646</v>
+        <v>0.1230687746681547</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03088801627128</v>
+        <v>0.07647069245205591</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0147813939252</v>
+        <v>0.4959151822161779</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04277891311178868</v>
+        <v>0.1309348776667633</v>
       </c>
       <c r="S18" t="n">
-        <v>0.267431049345322</v>
+        <v>0.1605999265498163</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3234781059473021</v>
+        <v>0.1814309049445366</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.634042786480595</v>
+        <v>0.2211738380844319</v>
       </c>
       <c r="C19" t="n">
-        <v>22.05654427582999</v>
+        <v>21.18734671125976</v>
       </c>
       <c r="D19" t="n">
-        <v>5.037722382792753</v>
+        <v>4.284808038881408</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1342857366631058</v>
+        <v>0.04302181430668289</v>
       </c>
       <c r="F19" t="n">
-        <v>85.00007142857143</v>
+        <v>86.66675000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>4.712336182336182</v>
+        <v>4.603467112597547</v>
       </c>
       <c r="H19" t="n">
-        <v>172.9901680330252</v>
+        <v>223.0890245261984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1810728355449005</v>
+        <v>0.000474024012084</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1656098906503692</v>
+        <v>0.02289184283130954</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2179220677800369</v>
+        <v>0.1200372680539528</v>
       </c>
       <c r="L19" t="n">
-        <v>0.182637733742873</v>
+        <v>0.02254794605609121</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1333547414666224</v>
+        <v>0.06142640505502495</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1221806866767041</v>
+        <v>0.09987857066688442</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1506486319701617</v>
+        <v>0.08567700545001654</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06268131792128764</v>
+        <v>0.02134156082652862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3644137265428079</v>
+        <v>0.02296026199606445</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1297589082458278</v>
+        <v>0.01700874853559046</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1511987681985375</v>
+        <v>0.010698670982412</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1845932053040793</v>
+        <v>0.01953896395615925</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1034152192298484</v>
+        <v>0.3593662763080637</v>
       </c>
       <c r="C20" t="n">
-        <v>34.1875</v>
+        <v>28.56079158936302</v>
       </c>
       <c r="D20" t="n">
-        <v>20.59270833333333</v>
+        <v>15.77390898783756</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06770836659830544</v>
+        <v>0.2432023077149235</v>
       </c>
       <c r="F20" t="n">
-        <v>53.333</v>
+        <v>66.66671428571429</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3125</v>
+        <v>2.143333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>240.6875</v>
+        <v>245.217501546073</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.007394075566925764</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.01464374492482466</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0197089135789248</v>
+        <v>0.02518574769457921</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.145760988242593</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.2340714163765604</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.07215518824815005</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.0001812213458179213</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9245553800683389</v>
+        <v>0.693131876691389</v>
       </c>
       <c r="C21" t="n">
-        <v>22.79497126436782</v>
+        <v>25.70889268340967</v>
       </c>
       <c r="D21" t="n">
-        <v>7.705907453019523</v>
+        <v>8.320715663588176</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3886561457965891</v>
+        <v>0.2214365656507777</v>
       </c>
       <c r="F21" t="n">
-        <v>82.50024999999999</v>
+        <v>77.083375</v>
       </c>
       <c r="G21" t="n">
-        <v>3.381896551724138</v>
+        <v>3.469916013340202</v>
       </c>
       <c r="H21" t="n">
-        <v>207.1423850574712</v>
+        <v>187.63553706459</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06619810862026645</v>
+        <v>0.173341380804937</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1238988671687997</v>
+        <v>0.2391694511514981</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1544037225253658</v>
+        <v>0.2366743071904852</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4466957856370375</v>
+        <v>0.2456716567945626</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2676069628095381</v>
+        <v>0.2364634421246292</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2954705501042907</v>
+        <v>0.2046667076603111</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4518150769335099</v>
+        <v>0.02870465084042727</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1880091366637683</v>
+        <v>0.0001417703151348</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1477853958706275</v>
+        <v>0.0004950492706845</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2125003772881082</v>
+        <v>0.001535751149601564</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02887213996182608</v>
+        <v>0.07264940139748077</v>
       </c>
       <c r="T21" t="n">
-        <v>0.069526579991753</v>
+        <v>0.1291417349553623</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1955514010253804</v>
+        <v>0.4552606867790098</v>
       </c>
       <c r="C22" t="n">
-        <v>41.00125313283208</v>
+        <v>28.77757448628158</v>
       </c>
       <c r="D22" t="n">
-        <v>18.16320185384095</v>
+        <v>12.19017986017819</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09178577304717235</v>
+        <v>0.2118762242515671</v>
       </c>
       <c r="F22" t="n">
-        <v>46.66657142857143</v>
+        <v>70.0779375</v>
       </c>
       <c r="G22" t="n">
-        <v>2.693609022556391</v>
+        <v>3.363251182297235</v>
       </c>
       <c r="H22" t="n">
-        <v>221.4639097744361</v>
+        <v>188.7815565287962</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04042076002677159</v>
+        <v>0.1011510992733134</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05451817298176109</v>
+        <v>0.09777630640495157</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09875656002496827</v>
+        <v>0.1172705794820247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07922985723081465</v>
+        <v>0.09566374637055013</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05593487958604949</v>
+        <v>0.1404066528534194</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06295976397784908</v>
+        <v>0.1340637608846455</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008958436359321175</v>
+        <v>0.03470143787192188</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.000298176394698</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.0010459110460176</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.002681160394002</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.02378678979002243</v>
       </c>
       <c r="T22" t="n">
-        <v>0.002518662147156004</v>
+        <v>0.04815983954799065</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8688677337398651</v>
+        <v>0.5449602017898297</v>
       </c>
       <c r="C23" t="n">
-        <v>24.50289602372935</v>
+        <v>19.07837451678448</v>
       </c>
       <c r="D23" t="n">
-        <v>5.03552132747686</v>
+        <v>2.895117108150263</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1785313134923562</v>
+        <v>0.09198628772227335</v>
       </c>
       <c r="F23" t="n">
-        <v>76.4285</v>
+        <v>95.55561111111111</v>
       </c>
       <c r="G23" t="n">
-        <v>4.621865244414264</v>
+        <v>6.383148584776937</v>
       </c>
       <c r="H23" t="n">
-        <v>155.6928758877288</v>
+        <v>167.6302271483306</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2927371738778066</v>
+        <v>0.1436289933225222</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3061300435438079</v>
+        <v>0.1230079093974804</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2575992083335124</v>
+        <v>0.1764836191173122</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2047547439009098</v>
+        <v>0.1543512116785402</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2345341686971136</v>
+        <v>0.1119113807102904</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1060617683467776</v>
+        <v>0.1034573189050951</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2124830473779888</v>
+        <v>0.1107658779512721</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0459364946936112</v>
+        <v>0.05988830379877322</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1734357016599984</v>
+        <v>0.2811686230666489</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1968501092418336</v>
+        <v>0.09106401302083952</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2333210944060359</v>
+        <v>0.1001719876441417</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3216936490666864</v>
+        <v>0.1256985019511052</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5119797746179653</v>
+        <v>0.06831369616121302</v>
       </c>
       <c r="C24" t="n">
-        <v>28.50276374859708</v>
+        <v>33.18198529411765</v>
       </c>
       <c r="D24" t="n">
-        <v>9.763873110455712</v>
+        <v>13.39915236928104</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2133138161799007</v>
+        <v>0.0306824559533263</v>
       </c>
       <c r="F24" t="n">
-        <v>64.44433333333333</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>2.910815759938567</v>
+        <v>2.772058823529411</v>
       </c>
       <c r="H24" t="n">
-        <v>188.3803089373265</v>
+        <v>244.1783088235294</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2358565529863681</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2130873164299237</v>
+        <v>0.0012661028451792</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2287045079175198</v>
+        <v>0.0011091142476288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.204583070041498</v>
+        <v>0.008978932254700801</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04311862865475199</v>
+        <v>0.04534564669919423</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0148484482179488</v>
+        <v>0.03967617388517281</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2913234157744362</v>
+        <v>0.0307310276737296</v>
       </c>
       <c r="P24" t="n">
-        <v>0.041951893669556</v>
+        <v>0.00073641923941824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04775243862051651</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0507615720868648</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0251494374067104</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1377664424740016</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6186911611634733</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C25" t="n">
-        <v>18.85555555555556</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>3.222521711676124</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.122796900642108</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F25" t="n">
-        <v>95.833375</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>5.706445868945869</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>163.5177706552707</v>
+        <v>159</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1609106495341006</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1455748466296022</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2222378384222573</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2113576838611647</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1433187697949126</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08686815260648824</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1067693723630957</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0855181564916558</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4639044557274479</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06410183390636638</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08654291373303633</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1228980311517685</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.275791284342316</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.27291666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7306720040936679</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3866690322055024</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9718491266070073</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2536155162311629</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4433398771082422</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2909296379300391</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.03668395374032331</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.006948274551321956</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0434634145789544</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6415493477240778</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.04183516023562</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.129764671006438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2430676621959964</v>
+      </c>
+      <c r="F27" t="n">
+        <v>92.69295238095238</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.662940843888395</v>
+      </c>
+      <c r="H27" t="n">
+        <v>184.5821691364433</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1374389363725047</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1519251083250887</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1594151631082377</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.242228764569999</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1902963524688237</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1893972628726752</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2132316954759</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2098031356284253</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0775434045328425</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.06164969765960165</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03613123646826556</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.09205326241545049</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8888063288020698</v>
+      </c>
+      <c r="C28" t="n">
+        <v>45.97727272727273</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.66897546897547</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3356374987034405</v>
+      </c>
+      <c r="F28" t="n">
+        <v>39.762</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.943181818181818</v>
+      </c>
+      <c r="H28" t="n">
+        <v>212.9431818181818</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2561197610581344</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2268342517696416</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4664192397611041</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4017331415271552</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2976614487973152</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1851164688429303</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.006208185448584</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0283435777031904</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.251986417932249</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.83234970329798</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.09205988060903</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5324094893814392</v>
+      </c>
+      <c r="F29" t="n">
+        <v>85.0741</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.262914486535176</v>
+      </c>
+      <c r="H29" t="n">
+        <v>161.2938770903426</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3392872804228717</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4500878414762122</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7569760675516033</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3918050090729561</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.488541057404882</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.07234674543946121</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1049078545824799</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0364042612238764</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1088664627478071</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0923794967205199</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1505592649731554</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2808105001479628</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6041203937194749</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.41495911495912</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.835321431025074</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2308697180511848</v>
+      </c>
+      <c r="F30" t="n">
+        <v>70.41666666666667</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.080836021277198</v>
+      </c>
+      <c r="H30" t="n">
+        <v>178.8026368375633</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2492708595789629</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2321496957861343</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.240290774028888</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2365456548656412</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.07525945867510188</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03774283673376765</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.3475583586917741</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.06929038593805122</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1716272973840239</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1491944203441361</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.06121646333689745</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2155293652401629</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5439320792305596</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25.03781475615576</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.525719694202488</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.153674458930093</v>
+      </c>
+      <c r="F31" t="n">
+        <v>75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.054280891509133</v>
+      </c>
+      <c r="H31" t="n">
+        <v>169.337746647353</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1774593499974097</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1362413055891147</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1614019193746688</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.07810621491135818</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1777939539514386</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1693659405367685</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.2265020027328365</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.2294700658567574</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.2159870214676699</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1914899024645615</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1581824384082061</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.1007439758162333</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5141253919089889</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18.42714285714286</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.874260483913845</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.09907746862094578</v>
+      </c>
+      <c r="F32" t="n">
+        <v>98.66670000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.427087912087911</v>
+      </c>
+      <c r="H32" t="n">
+        <v>162.5678937728938</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1273932062610272</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1008930044847248</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1779890843272263</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.179236956637658</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1065518905215657</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.08156659680279971</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.08907943641938876</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.07444138327781705</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3578417974873584</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.05493981418034975</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0678534072104954</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.09940646813289149</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.66439628271616</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20.07407407407407</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.573456790123457</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5570731700242987</v>
-      </c>
-      <c r="F26" t="n">
-        <v>90</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>115.4074074074074</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.8629615635043201</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.63803195138016</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3832968355776</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.61898361319872</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.05137808647104</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.41661686444544</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.74158423223808</v>
-      </c>
-      <c r="U26" t="inlineStr">
+      <c r="B33" t="n">
+        <v>0.9157560359888147</v>
+      </c>
+      <c r="C33" t="n">
+        <v>19.1537037037037</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.125104972188305</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2902912320224015</v>
+      </c>
+      <c r="F33" t="n">
+        <v>95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.633333333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>110.8537037037037</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4548664760515428</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3418270734804177</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.202593020583933</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3191990655743646</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.00643694026215744</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0300602582114688</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>8.56301441184e-05</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0077699161722672</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.2313847903091237</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.3991382423384244</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
